--- a/biology/Botanique/Tous_les_jardins_du_monde/Tous_les_jardins_du_monde.xlsx
+++ b/biology/Botanique/Tous_les_jardins_du_monde/Tous_les_jardins_du_monde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Tous les jardins du monde est une monographie illustrée sur les jardins et l'histoire culturelle du jardinage, écrite par la paysagiste franco-néerlandaise Gabrielle van Zuylen, et parue chez Gallimard en 1994. Cet ouvrage est le 207e titre dans la collection « Découvertes Gallimard »[1].
+Tous les jardins du monde est une monographie illustrée sur les jardins et l'histoire culturelle du jardinage, écrite par la paysagiste franco-néerlandaise Gabrielle van Zuylen, et parue chez Gallimard en 1994. Cet ouvrage est le 207e titre dans la collection « Découvertes Gallimard ».
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ouvrage traite de l'histoire des jardins occidentaux de manière professionnelle, de l'Antiquité à nos jours[2].
-Dans un sens à la recherche du paradis perdu, l'autrice retrace ici l'histoire des jardins depuis la Genèse. L'histoire des jardins est aussi vieille que celle du monde puisque c'est Dieu, dit-on, qui eut l'idée de créer le premier « espace vert » sur cette terre encore aride où il n'y avait ni buissons ni herbe, et y plaça l'homme qu'il avait formé. Après la perte du paradis, l'homme n'a cessé depuis d'essayer de le recréer artificiellement. Philosophique, religieux, humaniste, voire licencieux, le jardin a eu aussi, dans son histoire, un destin politique[3].
-D'autre part, explique l'autrice, le jardin est pour le plaisir esthétique, purement artistique, en correspondant à l'état de création d'un tableau. Un lieu uniquement pour l'art et le plaisir[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ouvrage traite de l'histoire des jardins occidentaux de manière professionnelle, de l'Antiquité à nos jours.
+Dans un sens à la recherche du paradis perdu, l'autrice retrace ici l'histoire des jardins depuis la Genèse. L'histoire des jardins est aussi vieille que celle du monde puisque c'est Dieu, dit-on, qui eut l'idée de créer le premier « espace vert » sur cette terre encore aride où il n'y avait ni buissons ni herbe, et y plaça l'homme qu'il avait formé. Après la perte du paradis, l'homme n'a cessé depuis d'essayer de le recréer artificiellement. Philosophique, religieux, humaniste, voire licencieux, le jardin a eu aussi, dans son histoire, un destin politique.
+D'autre part, explique l'autrice, le jardin est pour le plaisir esthétique, purement artistique, en correspondant à l'état de création d'un tableau. Un lieu uniquement pour l'art et le plaisir,.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Entretien</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un entretien entre Van Zuylen et les Éditions Gallimard a eu lieu à l'occasion de la parution de Tous les jardins du monde[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un entretien entre Van Zuylen et les Éditions Gallimard a eu lieu à l'occasion de la parution de Tous les jardins du monde.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site Babelio confère au livre une note moyenne de 3,76 sur 5, sur la base de 19 notes[7]. Sur le site Goodreads, l'édition britannique obtient une moyenne de 4,14/5 basée sur 7 notes[8], et l'édition américaine 3,33/5 basée sur 3 notes[9], indiquant des « avis généralement positifs ».
-Dans la revue L'Œil, un auteur anonyme trouve l'ouvrage « passionnant »[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site Babelio confère au livre une note moyenne de 3,76 sur 5, sur la base de 19 notes. Sur le site Goodreads, l'édition britannique obtient une moyenne de 4,14/5 basée sur 7 notes, et l'édition américaine 3,33/5 basée sur 3 notes, indiquant des « avis généralement positifs ».
+Dans la revue L'Œil, un auteur anonyme trouve l'ouvrage « passionnant ».
 </t>
         </is>
       </c>
@@ -609,6 +627,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
